--- a/doc/BigBluePill.xlsx
+++ b/doc/BigBluePill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="154">
   <si>
     <t>B13</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -671,6 +671,10 @@
   </si>
   <si>
     <t>SW1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD_SCL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1119,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2287,7 +2291,7 @@
     </row>
     <row r="60" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F60" s="8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>0</v>
